--- a/URM Physical Items/URM-PhysicalItemsPost-A_01JAN-14FEB_20210622_Diff.xlsx
+++ b/URM Physical Items/URM-PhysicalItemsPost-A_01JAN-14FEB_20210622_Diff.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omarc\Documents\UNICC-2021\URM Physical Items\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CA81F-4E64-48BA-81D8-ABFE45EB5EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2863,8 +2869,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2901,6 +2907,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2947,7 +2961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2979,9 +2993,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3013,6 +3045,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3188,14 +3238,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3265,7 +3321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3293,7 +3349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -3332,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3357,7 +3413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -3382,7 +3438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +3449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3407,7 +3463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -3418,7 +3474,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -3429,7 +3485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3443,7 +3499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -3454,7 +3510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3465,7 +3521,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3476,7 +3532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3490,7 +3546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -3501,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -3512,7 +3568,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -3523,7 +3579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3537,7 +3593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -3548,7 +3604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>18</v>
       </c>
@@ -3559,7 +3615,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -3570,7 +3626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3584,7 +3640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -3606,7 +3662,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>13</v>
       </c>
@@ -3617,7 +3673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3631,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3645,7 +3701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3659,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3673,7 +3729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -3684,7 +3740,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -3695,7 +3751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3709,7 +3765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3723,7 +3779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3737,7 +3793,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3762,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3829,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>13</v>
       </c>
@@ -3784,7 +3840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3798,7 +3854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>5</v>
       </c>
@@ -3809,7 +3865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -3820,7 +3876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3834,7 +3890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>18</v>
       </c>
@@ -3856,7 +3912,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3870,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>18</v>
       </c>
@@ -3881,7 +3937,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3895,7 +3951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3909,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3923,7 +3979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3937,7 +3993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3951,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3965,7 +4021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3979,7 +4035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3993,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4007,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4021,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4035,7 +4091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4049,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4063,7 +4119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4077,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>18</v>
       </c>
@@ -4088,7 +4144,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -4102,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>18</v>
       </c>
@@ -4113,7 +4169,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4127,7 +4183,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4197,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -4155,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>18</v>
       </c>
@@ -4166,7 +4222,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -4180,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>18</v>
       </c>
@@ -4191,7 +4247,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -4205,7 +4261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>18</v>
       </c>
@@ -4216,7 +4272,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -4230,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>18</v>
       </c>
@@ -4241,7 +4297,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -4255,7 +4311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>18</v>
       </c>
@@ -4266,7 +4322,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -4280,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>18</v>
       </c>
@@ -4291,7 +4347,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -4305,7 +4361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>18</v>
       </c>
@@ -4316,7 +4372,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -4330,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>18</v>
       </c>
@@ -4341,7 +4397,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -4355,7 +4411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>18</v>
       </c>
@@ -4366,7 +4422,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -4380,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>18</v>
       </c>
@@ -4391,7 +4447,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -4405,7 +4461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>18</v>
       </c>
@@ -4416,7 +4472,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -4430,7 +4486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>18</v>
       </c>
@@ -4441,7 +4497,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -4455,7 +4511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>18</v>
       </c>
@@ -4466,7 +4522,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -4480,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>18</v>
       </c>
@@ -4491,7 +4547,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -4505,7 +4561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>18</v>
       </c>
@@ -4516,7 +4572,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>86</v>
       </c>
@@ -4530,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>18</v>
       </c>
@@ -4541,7 +4597,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -4555,7 +4611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>18</v>
       </c>
@@ -4566,7 +4622,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -4580,7 +4636,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -4594,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>18</v>
       </c>
@@ -4605,7 +4661,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -4619,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>18</v>
       </c>
@@ -4630,7 +4686,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>91</v>
       </c>
@@ -4644,7 +4700,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -4658,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>18</v>
       </c>
@@ -4669,7 +4725,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>93</v>
       </c>
@@ -4683,7 +4739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>18</v>
       </c>
@@ -4694,7 +4750,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -4708,7 +4764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>18</v>
       </c>
@@ -4719,7 +4775,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>95</v>
       </c>
@@ -4733,7 +4789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>18</v>
       </c>
@@ -4744,7 +4800,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>96</v>
       </c>
@@ -4758,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>18</v>
       </c>
@@ -4769,7 +4825,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>97</v>
       </c>
@@ -4783,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>18</v>
       </c>
@@ -4794,7 +4850,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -4808,7 +4864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>18</v>
       </c>
@@ -4819,7 +4875,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -4833,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>18</v>
       </c>
@@ -4844,7 +4900,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -4858,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>18</v>
       </c>
@@ -4869,7 +4925,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>101</v>
       </c>
@@ -4883,7 +4939,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>102</v>
       </c>
@@ -4897,7 +4953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>18</v>
       </c>
@@ -4908,7 +4964,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -4922,7 +4978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>18</v>
       </c>
@@ -4933,7 +4989,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>104</v>
       </c>
@@ -4947,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>18</v>
       </c>
@@ -4958,7 +5014,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>105</v>
       </c>
@@ -4972,7 +5028,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>106</v>
       </c>
@@ -4986,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>18</v>
       </c>
@@ -4997,7 +5053,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>107</v>
       </c>
@@ -5011,7 +5067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>5</v>
       </c>
@@ -5022,7 +5078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>18</v>
       </c>
@@ -5033,7 +5089,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>110</v>
       </c>
@@ -5047,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>18</v>
       </c>
@@ -5058,7 +5114,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>111</v>
       </c>
@@ -5072,7 +5128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>18</v>
       </c>
@@ -5083,7 +5139,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>114</v>
       </c>
@@ -5097,7 +5153,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>115</v>
       </c>
@@ -5111,7 +5167,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>18</v>
       </c>
@@ -5133,7 +5189,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -5147,7 +5203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>5</v>
       </c>
@@ -5158,7 +5214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>18</v>
       </c>
@@ -5169,7 +5225,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>121</v>
       </c>
@@ -5183,7 +5239,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>5</v>
       </c>
@@ -5194,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5261,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>124</v>
       </c>
@@ -5219,7 +5275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>5</v>
       </c>
@@ -5230,7 +5286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>18</v>
       </c>
@@ -5241,7 +5297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>127</v>
       </c>
@@ -5255,7 +5311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>5</v>
       </c>
@@ -5266,7 +5322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>18</v>
       </c>
@@ -5277,7 +5333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>130</v>
       </c>
@@ -5291,7 +5347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>5</v>
       </c>
@@ -5302,7 +5358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>18</v>
       </c>
@@ -5313,7 +5369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>131</v>
       </c>
@@ -5327,7 +5383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>18</v>
       </c>
@@ -5338,7 +5394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>13</v>
       </c>
@@ -5349,7 +5405,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>134</v>
       </c>
@@ -5363,7 +5419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>18</v>
       </c>
@@ -5374,7 +5430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>13</v>
       </c>
@@ -5385,7 +5441,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>135</v>
       </c>
@@ -5399,7 +5455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>18</v>
       </c>
@@ -5410,7 +5466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>136</v>
       </c>
@@ -5424,7 +5480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>18</v>
       </c>
@@ -5435,7 +5491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>139</v>
       </c>
@@ -5449,7 +5505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>18</v>
       </c>
@@ -5460,7 +5516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>140</v>
       </c>
@@ -5474,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>18</v>
       </c>
@@ -5485,7 +5541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -5499,7 +5555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>18</v>
       </c>
@@ -5521,7 +5577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -5535,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>18</v>
       </c>
@@ -5546,7 +5602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -5560,7 +5616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>18</v>
       </c>
@@ -5571,7 +5627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -5585,7 +5641,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>5</v>
       </c>
@@ -5596,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>18</v>
       </c>
@@ -5607,7 +5663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>149</v>
       </c>
@@ -5621,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>18</v>
       </c>
@@ -5632,7 +5688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>150</v>
       </c>
@@ -5646,7 +5702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>18</v>
       </c>
@@ -5657,7 +5713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>151</v>
       </c>
@@ -5671,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>18</v>
       </c>
@@ -5682,7 +5738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>152</v>
       </c>
@@ -5696,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>18</v>
       </c>
@@ -5707,7 +5763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>153</v>
       </c>
@@ -5721,7 +5777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>18</v>
       </c>
@@ -5732,7 +5788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>154</v>
       </c>
@@ -5746,7 +5802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>18</v>
       </c>
@@ -5757,7 +5813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>155</v>
       </c>
@@ -5771,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>18</v>
       </c>
@@ -5782,7 +5838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>156</v>
       </c>
@@ -5796,7 +5852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>18</v>
       </c>
@@ -5807,7 +5863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>157</v>
       </c>
@@ -5821,7 +5877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>18</v>
       </c>
@@ -5832,7 +5888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>158</v>
       </c>
@@ -5846,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>18</v>
       </c>
@@ -5857,7 +5913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>159</v>
       </c>
@@ -5871,7 +5927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>18</v>
       </c>
@@ -5882,7 +5938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>160</v>
       </c>
@@ -5896,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>18</v>
       </c>
@@ -5907,7 +5963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>161</v>
       </c>
@@ -5921,7 +5977,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>5</v>
       </c>
@@ -5932,7 +5988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>18</v>
       </c>
@@ -5943,7 +5999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>164</v>
       </c>
@@ -5957,7 +6013,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>5</v>
       </c>
@@ -5968,7 +6024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>18</v>
       </c>
@@ -5979,7 +6035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>167</v>
       </c>
@@ -5993,7 +6049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>18</v>
       </c>
@@ -6004,7 +6060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>168</v>
       </c>
@@ -6018,7 +6074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>18</v>
       </c>
@@ -6029,7 +6085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>169</v>
       </c>
@@ -6043,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>18</v>
       </c>
@@ -6054,7 +6110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>170</v>
       </c>
@@ -6068,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>18</v>
       </c>
@@ -6079,7 +6135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>171</v>
       </c>
@@ -6093,7 +6149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>18</v>
       </c>
@@ -6104,7 +6160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>172</v>
       </c>
@@ -6118,7 +6174,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>5</v>
       </c>
@@ -6129,7 +6185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>18</v>
       </c>
@@ -6140,7 +6196,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>175</v>
       </c>
@@ -6154,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>18</v>
       </c>
@@ -6165,7 +6221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>176</v>
       </c>
@@ -6179,7 +6235,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>5</v>
       </c>
@@ -6190,7 +6246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>18</v>
       </c>
@@ -6201,7 +6257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>179</v>
       </c>
@@ -6215,7 +6271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>5</v>
       </c>
@@ -6226,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>18</v>
       </c>
@@ -6237,7 +6293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>182</v>
       </c>
@@ -6251,7 +6307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>18</v>
       </c>
@@ -6262,7 +6318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>183</v>
       </c>
@@ -6276,7 +6332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>184</v>
       </c>
@@ -6290,7 +6346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>185</v>
       </c>
@@ -6304,7 +6360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>186</v>
       </c>
@@ -6318,7 +6374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>187</v>
       </c>
@@ -6332,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>188</v>
       </c>
@@ -6346,7 +6402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>189</v>
       </c>
@@ -6360,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>190</v>
       </c>
@@ -6374,7 +6430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>191</v>
       </c>
@@ -6388,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>192</v>
       </c>
@@ -6402,7 +6458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>193</v>
       </c>
@@ -6416,7 +6472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>194</v>
       </c>
@@ -6430,7 +6486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>195</v>
       </c>
@@ -6444,7 +6500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>196</v>
       </c>
@@ -6458,7 +6514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>197</v>
       </c>
@@ -6472,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>198</v>
       </c>
@@ -6486,7 +6542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>199</v>
       </c>
@@ -6500,7 +6556,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>5</v>
       </c>
@@ -6511,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>18</v>
       </c>
@@ -6522,7 +6578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>202</v>
       </c>
@@ -6536,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>18</v>
       </c>
@@ -6547,7 +6603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>203</v>
       </c>
@@ -6561,7 +6617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>18</v>
       </c>
@@ -6572,7 +6628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>204</v>
       </c>
@@ -6586,7 +6642,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>5</v>
       </c>
@@ -6597,7 +6653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>18</v>
       </c>
@@ -6608,7 +6664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>207</v>
       </c>
@@ -6622,7 +6678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>18</v>
       </c>
@@ -6633,7 +6689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>208</v>
       </c>
@@ -6647,7 +6703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>18</v>
       </c>
@@ -6658,7 +6714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>209</v>
       </c>
@@ -6672,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>18</v>
       </c>
@@ -6683,7 +6739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>210</v>
       </c>
@@ -6697,7 +6753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>18</v>
       </c>
@@ -6708,7 +6764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>211</v>
       </c>
@@ -6722,7 +6778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>18</v>
       </c>
@@ -6733,7 +6789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>212</v>
       </c>
@@ -6747,7 +6803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>213</v>
       </c>
@@ -6761,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>214</v>
       </c>
@@ -6775,7 +6831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>215</v>
       </c>
@@ -6789,7 +6845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>216</v>
       </c>
@@ -6803,7 +6859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>217</v>
       </c>
@@ -6817,7 +6873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>218</v>
       </c>
@@ -6831,7 +6887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>18</v>
       </c>
@@ -6842,7 +6898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>219</v>
       </c>
@@ -6856,7 +6912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>18</v>
       </c>
@@ -6867,7 +6923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>220</v>
       </c>
@@ -6881,7 +6937,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>5</v>
       </c>
@@ -6892,7 +6948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>18</v>
       </c>
@@ -6903,7 +6959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>224</v>
       </c>
@@ -6917,7 +6973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>18</v>
       </c>
@@ -6928,7 +6984,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>225</v>
       </c>
@@ -6942,7 +6998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>18</v>
       </c>
@@ -6953,7 +7009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>226</v>
       </c>
@@ -6967,7 +7023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>18</v>
       </c>
@@ -6978,7 +7034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>227</v>
       </c>
@@ -6992,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>18</v>
       </c>
@@ -7003,7 +7059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>228</v>
       </c>
@@ -7017,7 +7073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>18</v>
       </c>
@@ -7028,7 +7084,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>229</v>
       </c>
@@ -7042,7 +7098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>18</v>
       </c>
@@ -7053,7 +7109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>230</v>
       </c>
@@ -7067,7 +7123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>18</v>
       </c>
@@ -7078,7 +7134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>231</v>
       </c>
@@ -7092,7 +7148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>18</v>
       </c>
@@ -7103,7 +7159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>232</v>
       </c>
@@ -7117,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>18</v>
       </c>
@@ -7128,7 +7184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>233</v>
       </c>
@@ -7142,7 +7198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>18</v>
       </c>
@@ -7153,7 +7209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>234</v>
       </c>
@@ -7167,7 +7223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>235</v>
       </c>
@@ -7181,7 +7237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>18</v>
       </c>
@@ -7192,7 +7248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>236</v>
       </c>
@@ -7206,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>18</v>
       </c>
@@ -7217,7 +7273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>237</v>
       </c>
@@ -7231,7 +7287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>18</v>
       </c>
@@ -7242,7 +7298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>238</v>
       </c>
@@ -7256,7 +7312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>18</v>
       </c>
@@ -7267,7 +7323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>239</v>
       </c>
@@ -7281,7 +7337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>240</v>
       </c>
@@ -7295,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>241</v>
       </c>
@@ -7309,7 +7365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>242</v>
       </c>
@@ -7323,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>243</v>
       </c>
@@ -7337,7 +7393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>244</v>
       </c>
@@ -7351,7 +7407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>245</v>
       </c>
@@ -7365,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>246</v>
       </c>
@@ -7379,7 +7435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>247</v>
       </c>
@@ -7393,7 +7449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>248</v>
       </c>
@@ -7407,7 +7463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>249</v>
       </c>
@@ -7421,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>250</v>
       </c>
@@ -7435,7 +7491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>18</v>
       </c>
@@ -7446,7 +7502,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>251</v>
       </c>
@@ -7460,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>18</v>
       </c>
@@ -7471,7 +7527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>252</v>
       </c>
@@ -7485,7 +7541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>18</v>
       </c>
@@ -7496,7 +7552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>253</v>
       </c>
@@ -7510,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>18</v>
       </c>
@@ -7521,7 +7577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>254</v>
       </c>
@@ -7535,7 +7591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>18</v>
       </c>
@@ -7546,7 +7602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>255</v>
       </c>
@@ -7560,7 +7616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>18</v>
       </c>
@@ -7571,7 +7627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>256</v>
       </c>
@@ -7585,7 +7641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>18</v>
       </c>
@@ -7596,7 +7652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>257</v>
       </c>
@@ -7610,7 +7666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>18</v>
       </c>
@@ -7621,7 +7677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>258</v>
       </c>
@@ -7635,7 +7691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>18</v>
       </c>
@@ -7646,7 +7702,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>259</v>
       </c>
@@ -7660,7 +7716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>18</v>
       </c>
@@ -7671,7 +7727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>260</v>
       </c>
@@ -7685,7 +7741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>18</v>
       </c>
@@ -7696,7 +7752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>13</v>
       </c>
@@ -7707,7 +7763,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>263</v>
       </c>
@@ -7721,7 +7777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>13</v>
       </c>
@@ -7732,7 +7788,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>264</v>
       </c>
@@ -7746,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>18</v>
       </c>
@@ -7757,7 +7813,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>265</v>
       </c>
@@ -7771,7 +7827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>18</v>
       </c>
@@ -7782,7 +7838,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>266</v>
       </c>
@@ -7796,7 +7852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>18</v>
       </c>
@@ -7807,7 +7863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>267</v>
       </c>
@@ -7821,7 +7877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>18</v>
       </c>
@@ -7832,7 +7888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>268</v>
       </c>
@@ -7846,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>18</v>
       </c>
@@ -7857,7 +7913,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>269</v>
       </c>
@@ -7871,7 +7927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>18</v>
       </c>
@@ -7882,7 +7938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>270</v>
       </c>
@@ -7896,7 +7952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>271</v>
       </c>
@@ -7910,7 +7966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>18</v>
       </c>
@@ -7921,7 +7977,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>272</v>
       </c>
@@ -7935,7 +7991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>18</v>
       </c>
@@ -7946,7 +8002,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>273</v>
       </c>
@@ -7960,7 +8016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>274</v>
       </c>
@@ -7974,7 +8030,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>5</v>
       </c>
@@ -7985,7 +8041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>278</v>
       </c>
@@ -7999,7 +8055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>279</v>
       </c>
@@ -8013,7 +8069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>280</v>
       </c>
@@ -8027,7 +8083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>281</v>
       </c>
@@ -8041,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>282</v>
       </c>
@@ -8055,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>283</v>
       </c>
@@ -8066,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>5</v>
       </c>
@@ -8077,7 +8133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>285</v>
       </c>
@@ -8088,7 +8144,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>288</v>
       </c>
@@ -8099,7 +8155,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>291</v>
       </c>
@@ -8107,7 +8163,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>293</v>
       </c>
@@ -8115,7 +8171,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>295</v>
       </c>
@@ -8123,7 +8179,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>297</v>
       </c>
@@ -8131,7 +8187,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>299</v>
       </c>
@@ -8145,7 +8201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>300</v>
       </c>
@@ -8159,7 +8215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>301</v>
       </c>
@@ -8173,7 +8229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>302</v>
       </c>
@@ -8187,7 +8243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>303</v>
       </c>
@@ -8201,7 +8257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>304</v>
       </c>
@@ -8215,7 +8271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>305</v>
       </c>
@@ -8229,7 +8285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>306</v>
       </c>
@@ -8243,7 +8299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>307</v>
       </c>
@@ -8257,7 +8313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>308</v>
       </c>
@@ -8271,7 +8327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>309</v>
       </c>
@@ -8285,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>310</v>
       </c>
@@ -8299,7 +8355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>311</v>
       </c>
@@ -8313,7 +8369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>312</v>
       </c>
@@ -8327,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>313</v>
       </c>
@@ -8341,7 +8397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>314</v>
       </c>
@@ -8355,7 +8411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>315</v>
       </c>
@@ -8369,7 +8425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>316</v>
       </c>
@@ -8383,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>317</v>
       </c>
@@ -8397,7 +8453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>318</v>
       </c>
@@ -8411,7 +8467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>319</v>
       </c>
@@ -8425,7 +8481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>320</v>
       </c>
@@ -8439,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>321</v>
       </c>
@@ -8453,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>322</v>
       </c>
@@ -8467,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>323</v>
       </c>
@@ -8481,7 +8537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>324</v>
       </c>
@@ -8495,7 +8551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>325</v>
       </c>
@@ -8509,7 +8565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>326</v>
       </c>
@@ -8523,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>327</v>
       </c>
@@ -8537,7 +8593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>328</v>
       </c>
@@ -8551,7 +8607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>329</v>
       </c>
@@ -8565,7 +8621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>330</v>
       </c>
@@ -8579,7 +8635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>331</v>
       </c>
@@ -8593,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>332</v>
       </c>
@@ -8607,7 +8663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>333</v>
       </c>
@@ -8621,7 +8677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>334</v>
       </c>
@@ -8635,7 +8691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>335</v>
       </c>
@@ -8649,7 +8705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>336</v>
       </c>
@@ -8663,7 +8719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>337</v>
       </c>
@@ -8677,7 +8733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>338</v>
       </c>
@@ -8691,7 +8747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>339</v>
       </c>
@@ -8705,7 +8761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>340</v>
       </c>
@@ -8719,7 +8775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>341</v>
       </c>
@@ -8733,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>342</v>
       </c>
@@ -8747,7 +8803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>343</v>
       </c>
@@ -8761,7 +8817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>344</v>
       </c>
@@ -8775,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>345</v>
       </c>
@@ -8789,7 +8845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>346</v>
       </c>
@@ -8803,7 +8859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>347</v>
       </c>
@@ -8817,7 +8873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>348</v>
       </c>
@@ -8831,7 +8887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>349</v>
       </c>
@@ -8845,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>350</v>
       </c>
@@ -8859,7 +8915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>351</v>
       </c>
@@ -8873,7 +8929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>352</v>
       </c>
@@ -8887,7 +8943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>353</v>
       </c>
@@ -8901,7 +8957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>354</v>
       </c>
@@ -8915,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>355</v>
       </c>
@@ -8929,7 +8985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>356</v>
       </c>
@@ -8943,7 +8999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>357</v>
       </c>
@@ -8957,7 +9013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>358</v>
       </c>
@@ -8971,7 +9027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>359</v>
       </c>
@@ -8985,7 +9041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>360</v>
       </c>
@@ -8999,7 +9055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>361</v>
       </c>
@@ -9013,7 +9069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>362</v>
       </c>
@@ -9027,7 +9083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>363</v>
       </c>
@@ -9041,7 +9097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>364</v>
       </c>
@@ -9055,7 +9111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>365</v>
       </c>
@@ -9069,7 +9125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>366</v>
       </c>
@@ -9083,7 +9139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>367</v>
       </c>
@@ -9097,7 +9153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>368</v>
       </c>
@@ -9111,7 +9167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>369</v>
       </c>
@@ -9125,7 +9181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>370</v>
       </c>
@@ -9139,7 +9195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>371</v>
       </c>
@@ -9153,7 +9209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>372</v>
       </c>
@@ -9167,7 +9223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>373</v>
       </c>
@@ -9181,7 +9237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>374</v>
       </c>
@@ -9195,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>375</v>
       </c>
@@ -9209,7 +9265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>376</v>
       </c>
@@ -9223,7 +9279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>377</v>
       </c>
@@ -9237,7 +9293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>378</v>
       </c>
@@ -9251,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>379</v>
       </c>
@@ -9265,7 +9321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>380</v>
       </c>
@@ -9279,7 +9335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>381</v>
       </c>
@@ -9293,7 +9349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>382</v>
       </c>
@@ -9307,7 +9363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>383</v>
       </c>
@@ -9321,7 +9377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>384</v>
       </c>
@@ -9335,7 +9391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>385</v>
       </c>
@@ -9349,7 +9405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>386</v>
       </c>
@@ -9363,7 +9419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>387</v>
       </c>
@@ -9377,7 +9433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>388</v>
       </c>
@@ -9391,7 +9447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>389</v>
       </c>
@@ -9405,7 +9461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>390</v>
       </c>
@@ -9419,7 +9475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>391</v>
       </c>
@@ -9433,7 +9489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>392</v>
       </c>
@@ -9447,7 +9503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>393</v>
       </c>
@@ -9461,7 +9517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>394</v>
       </c>
@@ -9475,7 +9531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>395</v>
       </c>
@@ -9489,7 +9545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>396</v>
       </c>
@@ -9503,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>397</v>
       </c>
@@ -9517,7 +9573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>398</v>
       </c>
@@ -9531,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>399</v>
       </c>
@@ -9545,7 +9601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>400</v>
       </c>
@@ -9559,7 +9615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>401</v>
       </c>
@@ -9573,7 +9629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>402</v>
       </c>
@@ -9587,7 +9643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>403</v>
       </c>
@@ -9601,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>404</v>
       </c>
@@ -9615,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>405</v>
       </c>
@@ -9629,7 +9685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>406</v>
       </c>
@@ -9643,7 +9699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>407</v>
       </c>
@@ -9657,7 +9713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>408</v>
       </c>
@@ -9671,7 +9727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>409</v>
       </c>
@@ -9685,7 +9741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>410</v>
       </c>
@@ -9699,7 +9755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>411</v>
       </c>
@@ -9713,7 +9769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>412</v>
       </c>
@@ -9727,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>413</v>
       </c>
@@ -9741,7 +9797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>414</v>
       </c>
@@ -9755,7 +9811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>415</v>
       </c>
@@ -9769,7 +9825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>416</v>
       </c>
@@ -9783,7 +9839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>417</v>
       </c>
@@ -9797,7 +9853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>418</v>
       </c>
@@ -9811,7 +9867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>419</v>
       </c>
@@ -9825,7 +9881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>420</v>
       </c>
@@ -9839,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>421</v>
       </c>
@@ -9853,7 +9909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>422</v>
       </c>
@@ -9867,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>423</v>
       </c>
@@ -9881,7 +9937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>424</v>
       </c>
@@ -9895,7 +9951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>425</v>
       </c>
@@ -9909,7 +9965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>426</v>
       </c>
@@ -9923,7 +9979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>427</v>
       </c>
@@ -9937,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>428</v>
       </c>
@@ -9951,7 +10007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>429</v>
       </c>
@@ -9965,7 +10021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>430</v>
       </c>
@@ -9979,7 +10035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>431</v>
       </c>
@@ -9993,7 +10049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>432</v>
       </c>
@@ -10007,7 +10063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>433</v>
       </c>
@@ -10021,7 +10077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>434</v>
       </c>
@@ -10035,7 +10091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>435</v>
       </c>
@@ -10049,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>436</v>
       </c>
@@ -10063,7 +10119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>437</v>
       </c>
@@ -10077,7 +10133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>438</v>
       </c>
@@ -10091,7 +10147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>439</v>
       </c>
@@ -10105,7 +10161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>440</v>
       </c>
@@ -10119,7 +10175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>441</v>
       </c>
@@ -10133,7 +10189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>442</v>
       </c>
@@ -10147,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>443</v>
       </c>
@@ -10161,7 +10217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>444</v>
       </c>
@@ -10175,7 +10231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>445</v>
       </c>
@@ -10189,7 +10245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>446</v>
       </c>
@@ -10203,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>447</v>
       </c>
@@ -10217,7 +10273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>448</v>
       </c>
@@ -10231,7 +10287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>449</v>
       </c>
@@ -10245,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>450</v>
       </c>
@@ -10259,7 +10315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>451</v>
       </c>
@@ -10273,7 +10329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>452</v>
       </c>
@@ -10287,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>453</v>
       </c>
@@ -10301,7 +10357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>454</v>
       </c>
@@ -10315,7 +10371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>455</v>
       </c>
@@ -10329,7 +10385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>456</v>
       </c>
@@ -10343,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>457</v>
       </c>
@@ -10357,7 +10413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>458</v>
       </c>
@@ -10371,7 +10427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>459</v>
       </c>
@@ -10385,7 +10441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>460</v>
       </c>
@@ -10399,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>461</v>
       </c>
@@ -10413,7 +10469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>462</v>
       </c>
@@ -10427,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>463</v>
       </c>
@@ -10441,7 +10497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>464</v>
       </c>
@@ -10455,7 +10511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>465</v>
       </c>
@@ -10469,7 +10525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>466</v>
       </c>
@@ -10483,7 +10539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>467</v>
       </c>
@@ -10497,7 +10553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>468</v>
       </c>
@@ -10511,7 +10567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>469</v>
       </c>
@@ -10525,7 +10581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>470</v>
       </c>
@@ -10539,7 +10595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>471</v>
       </c>
@@ -10553,7 +10609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>472</v>
       </c>
@@ -10567,7 +10623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>473</v>
       </c>
@@ -10581,7 +10637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>474</v>
       </c>
@@ -10595,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>475</v>
       </c>
@@ -10609,7 +10665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>476</v>
       </c>
@@ -10623,7 +10679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>477</v>
       </c>
@@ -10637,7 +10693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>478</v>
       </c>
@@ -10651,7 +10707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>479</v>
       </c>
@@ -10665,7 +10721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>480</v>
       </c>
@@ -10679,7 +10735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>481</v>
       </c>
@@ -10693,7 +10749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>482</v>
       </c>
@@ -10707,7 +10763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>483</v>
       </c>
@@ -10721,7 +10777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>484</v>
       </c>
@@ -10735,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>485</v>
       </c>
@@ -10749,7 +10805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>486</v>
       </c>
@@ -10763,7 +10819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>487</v>
       </c>
@@ -10777,7 +10833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>488</v>
       </c>
@@ -10791,7 +10847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>489</v>
       </c>
@@ -10805,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>490</v>
       </c>
@@ -10819,7 +10875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>491</v>
       </c>
@@ -10833,7 +10889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>492</v>
       </c>
@@ -10847,7 +10903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>493</v>
       </c>
@@ -10861,7 +10917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>494</v>
       </c>
@@ -10875,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>495</v>
       </c>
@@ -10889,7 +10945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>496</v>
       </c>
@@ -10903,7 +10959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>497</v>
       </c>
@@ -10917,7 +10973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>498</v>
       </c>
@@ -10931,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>499</v>
       </c>
@@ -10945,7 +11001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>500</v>
       </c>
@@ -10959,7 +11015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>501</v>
       </c>
@@ -10973,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>502</v>
       </c>
@@ -10987,7 +11043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>503</v>
       </c>
@@ -11001,7 +11057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>504</v>
       </c>
@@ -11015,7 +11071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>505</v>
       </c>
@@ -11029,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>506</v>
       </c>
@@ -11043,7 +11099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>507</v>
       </c>
@@ -11057,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>508</v>
       </c>
@@ -11071,7 +11127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>509</v>
       </c>
@@ -11085,7 +11141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>510</v>
       </c>
@@ -11099,7 +11155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>511</v>
       </c>
@@ -11113,7 +11169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>512</v>
       </c>
@@ -11127,7 +11183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>513</v>
       </c>
@@ -11141,7 +11197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>514</v>
       </c>
@@ -11155,7 +11211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>515</v>
       </c>
@@ -11169,7 +11225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>516</v>
       </c>
@@ -11183,7 +11239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>517</v>
       </c>
@@ -11197,7 +11253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>518</v>
       </c>
@@ -11211,7 +11267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>519</v>
       </c>
@@ -11225,7 +11281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>520</v>
       </c>
@@ -11239,7 +11295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>521</v>
       </c>
@@ -11253,7 +11309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>522</v>
       </c>
@@ -11267,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>523</v>
       </c>
@@ -11281,7 +11337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>524</v>
       </c>
@@ -11295,7 +11351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>525</v>
       </c>
@@ -11309,7 +11365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>526</v>
       </c>
@@ -11323,7 +11379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>527</v>
       </c>
@@ -11337,7 +11393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>528</v>
       </c>
@@ -11351,7 +11407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>529</v>
       </c>
@@ -11365,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>530</v>
       </c>
@@ -11379,7 +11435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>531</v>
       </c>
@@ -11393,7 +11449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>532</v>
       </c>
@@ -11407,7 +11463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>533</v>
       </c>
@@ -11421,7 +11477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>534</v>
       </c>
@@ -11435,7 +11491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>535</v>
       </c>
@@ -11449,7 +11505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>536</v>
       </c>
@@ -11463,7 +11519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>537</v>
       </c>
@@ -11477,7 +11533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>538</v>
       </c>
@@ -11491,7 +11547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>539</v>
       </c>
@@ -11505,7 +11561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>540</v>
       </c>
@@ -11519,7 +11575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>541</v>
       </c>
@@ -11533,7 +11589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>542</v>
       </c>
@@ -11547,7 +11603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>543</v>
       </c>
@@ -11561,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>544</v>
       </c>
@@ -11575,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>545</v>
       </c>
@@ -11589,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>546</v>
       </c>
@@ -11603,7 +11659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>547</v>
       </c>
@@ -11617,7 +11673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>548</v>
       </c>
@@ -11631,7 +11687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>549</v>
       </c>
@@ -11645,7 +11701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>550</v>
       </c>
@@ -11659,7 +11715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>551</v>
       </c>
@@ -11673,7 +11729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>552</v>
       </c>
@@ -11687,7 +11743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>553</v>
       </c>
@@ -11701,7 +11757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>554</v>
       </c>
@@ -11715,7 +11771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>555</v>
       </c>
@@ -11729,7 +11785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>556</v>
       </c>
@@ -11743,7 +11799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>557</v>
       </c>
@@ -11757,7 +11813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>558</v>
       </c>
@@ -11771,7 +11827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>559</v>
       </c>
@@ -11785,7 +11841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>560</v>
       </c>
@@ -11799,7 +11855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>561</v>
       </c>
@@ -11813,7 +11869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>562</v>
       </c>
@@ -11827,7 +11883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>563</v>
       </c>
@@ -11841,7 +11897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>564</v>
       </c>
@@ -11855,7 +11911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>565</v>
       </c>
@@ -11869,7 +11925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>566</v>
       </c>
@@ -11883,7 +11939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>567</v>
       </c>
@@ -11897,7 +11953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>568</v>
       </c>
@@ -11911,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>569</v>
       </c>
@@ -11925,7 +11981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>570</v>
       </c>
@@ -11939,7 +11995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>571</v>
       </c>
@@ -11953,7 +12009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>572</v>
       </c>
@@ -11967,7 +12023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>573</v>
       </c>
@@ -11981,7 +12037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>574</v>
       </c>
@@ -11995,7 +12051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>575</v>
       </c>
@@ -12009,7 +12065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>576</v>
       </c>
@@ -12023,7 +12079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>577</v>
       </c>
@@ -12037,7 +12093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>578</v>
       </c>
@@ -12051,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>579</v>
       </c>
@@ -12065,7 +12121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>580</v>
       </c>
@@ -12079,7 +12135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>581</v>
       </c>
@@ -12093,7 +12149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>582</v>
       </c>
@@ -12107,7 +12163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>583</v>
       </c>
@@ -12121,7 +12177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>584</v>
       </c>
@@ -12135,7 +12191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>585</v>
       </c>
@@ -12149,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>586</v>
       </c>
@@ -12163,7 +12219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>587</v>
       </c>
@@ -12177,7 +12233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>588</v>
       </c>
@@ -12191,7 +12247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>589</v>
       </c>
@@ -12205,7 +12261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>590</v>
       </c>
@@ -12219,7 +12275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>591</v>
       </c>
@@ -12233,7 +12289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>592</v>
       </c>
@@ -12247,7 +12303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>593</v>
       </c>
@@ -12261,7 +12317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>594</v>
       </c>
@@ -12275,7 +12331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>595</v>
       </c>
@@ -12289,7 +12345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>596</v>
       </c>
@@ -12303,7 +12359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>597</v>
       </c>
@@ -12317,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>598</v>
       </c>
@@ -12331,7 +12387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>599</v>
       </c>
@@ -12345,7 +12401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>600</v>
       </c>
@@ -12359,7 +12415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>601</v>
       </c>
@@ -12373,7 +12429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>602</v>
       </c>
@@ -12387,7 +12443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>603</v>
       </c>
@@ -12401,7 +12457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>604</v>
       </c>
@@ -12415,7 +12471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>605</v>
       </c>
@@ -12429,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>606</v>
       </c>
@@ -12443,7 +12499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>607</v>
       </c>
@@ -12457,7 +12513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>608</v>
       </c>
@@ -12471,7 +12527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>609</v>
       </c>
@@ -12485,7 +12541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>610</v>
       </c>
@@ -12499,7 +12555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>611</v>
       </c>
@@ -12513,7 +12569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>612</v>
       </c>
@@ -12527,7 +12583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>613</v>
       </c>
@@ -12541,7 +12597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>614</v>
       </c>
@@ -12555,7 +12611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>615</v>
       </c>
@@ -12569,7 +12625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>616</v>
       </c>
@@ -12583,7 +12639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>617</v>
       </c>
@@ -12597,7 +12653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>618</v>
       </c>
@@ -12611,7 +12667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>619</v>
       </c>
@@ -12625,7 +12681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>620</v>
       </c>
@@ -12639,7 +12695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>621</v>
       </c>
@@ -12653,7 +12709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>622</v>
       </c>
@@ -12667,7 +12723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>623</v>
       </c>
@@ -12681,7 +12737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>624</v>
       </c>
@@ -12695,7 +12751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>625</v>
       </c>
@@ -12709,7 +12765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>626</v>
       </c>
@@ -12723,7 +12779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>627</v>
       </c>
@@ -12737,7 +12793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>628</v>
       </c>
@@ -12751,7 +12807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>629</v>
       </c>
@@ -12765,7 +12821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>630</v>
       </c>
@@ -12779,7 +12835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>631</v>
       </c>
@@ -12793,7 +12849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>632</v>
       </c>
@@ -12807,7 +12863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>633</v>
       </c>
@@ -12821,7 +12877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>634</v>
       </c>
@@ -12835,7 +12891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>635</v>
       </c>
@@ -12849,7 +12905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>636</v>
       </c>
@@ -12863,7 +12919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>637</v>
       </c>
@@ -12877,7 +12933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>638</v>
       </c>
@@ -12891,7 +12947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>639</v>
       </c>
@@ -12905,7 +12961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>640</v>
       </c>
@@ -12919,7 +12975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>641</v>
       </c>
@@ -12933,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>642</v>
       </c>
@@ -12947,7 +13003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>643</v>
       </c>
@@ -12961,7 +13017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>644</v>
       </c>
@@ -12975,7 +13031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>645</v>
       </c>
@@ -12989,7 +13045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>646</v>
       </c>
@@ -13003,7 +13059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>647</v>
       </c>
@@ -13017,7 +13073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>648</v>
       </c>
@@ -13031,7 +13087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>649</v>
       </c>
@@ -13045,7 +13101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>650</v>
       </c>
@@ -13059,7 +13115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>651</v>
       </c>
@@ -13073,7 +13129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>652</v>
       </c>
@@ -13087,7 +13143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>653</v>
       </c>
@@ -13101,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>654</v>
       </c>
@@ -13115,7 +13171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>655</v>
       </c>
@@ -13129,7 +13185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>656</v>
       </c>
@@ -13143,7 +13199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>657</v>
       </c>
@@ -13157,7 +13213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>658</v>
       </c>
@@ -13171,7 +13227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>659</v>
       </c>
@@ -13185,7 +13241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>660</v>
       </c>
@@ -13199,7 +13255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>661</v>
       </c>
@@ -13213,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>662</v>
       </c>
@@ -13227,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>663</v>
       </c>
@@ -13241,7 +13297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>664</v>
       </c>
@@ -13255,7 +13311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>665</v>
       </c>
@@ -13269,7 +13325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>666</v>
       </c>
@@ -13283,7 +13339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>667</v>
       </c>
@@ -13297,7 +13353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>668</v>
       </c>
@@ -13311,7 +13367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>669</v>
       </c>
@@ -13325,7 +13381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>670</v>
       </c>
@@ -13339,7 +13395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>671</v>
       </c>
@@ -13353,7 +13409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>672</v>
       </c>
@@ -13367,7 +13423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>673</v>
       </c>
@@ -13381,7 +13437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B768" t="s">
         <v>674</v>
       </c>
@@ -13392,7 +13448,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>677</v>
       </c>
@@ -13406,7 +13462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B770" t="s">
         <v>674</v>
       </c>
@@ -13417,7 +13473,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>680</v>
       </c>
@@ -13431,7 +13487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>681</v>
       </c>
@@ -13445,7 +13501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>682</v>
       </c>
@@ -13459,7 +13515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>683</v>
       </c>
@@ -13473,7 +13529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>684</v>
       </c>
@@ -13487,7 +13543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>685</v>
       </c>
@@ -13501,7 +13557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>686</v>
       </c>
@@ -13515,7 +13571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>687</v>
       </c>
@@ -13529,7 +13585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>688</v>
       </c>
@@ -13543,7 +13599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>689</v>
       </c>
@@ -13557,7 +13613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>690</v>
       </c>
@@ -13571,7 +13627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>691</v>
       </c>
@@ -13585,7 +13641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>692</v>
       </c>
@@ -13599,7 +13655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B784" t="s">
         <v>13</v>
       </c>
@@ -13610,7 +13666,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>695</v>
       </c>
@@ -13624,7 +13680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>696</v>
       </c>
@@ -13638,7 +13694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>697</v>
       </c>
@@ -13652,7 +13708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>698</v>
       </c>
@@ -13666,7 +13722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>699</v>
       </c>
@@ -13680,7 +13736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B790" t="s">
         <v>13</v>
       </c>
@@ -13691,7 +13747,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>702</v>
       </c>
@@ -13705,7 +13761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>703</v>
       </c>
@@ -13719,7 +13775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B793" t="s">
         <v>674</v>
       </c>
@@ -13730,7 +13786,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>706</v>
       </c>
@@ -13744,7 +13800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>707</v>
       </c>
@@ -13758,7 +13814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>708</v>
       </c>
@@ -13772,7 +13828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>709</v>
       </c>
@@ -13786,7 +13842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>710</v>
       </c>
@@ -13800,7 +13856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>711</v>
       </c>
@@ -13814,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>712</v>
       </c>
@@ -13828,7 +13884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B801" t="s">
         <v>674</v>
       </c>
@@ -13839,7 +13895,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>715</v>
       </c>
@@ -13853,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>716</v>
       </c>
@@ -13867,7 +13923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B804" t="s">
         <v>674</v>
       </c>
@@ -13878,7 +13934,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>719</v>
       </c>
@@ -13892,7 +13948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B806" t="s">
         <v>674</v>
       </c>
@@ -13903,7 +13959,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>722</v>
       </c>
@@ -13917,7 +13973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B808" t="s">
         <v>674</v>
       </c>
@@ -13928,7 +13984,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>725</v>
       </c>
@@ -13942,7 +13998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B810" t="s">
         <v>13</v>
       </c>
@@ -13953,7 +14009,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B811" t="s">
         <v>674</v>
       </c>
@@ -13964,7 +14020,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>730</v>
       </c>
@@ -13978,7 +14034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B813" t="s">
         <v>674</v>
       </c>
@@ -13989,7 +14045,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>733</v>
       </c>
@@ -14003,7 +14059,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>736</v>
       </c>
@@ -14017,7 +14073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B816" t="s">
         <v>674</v>
       </c>
@@ -14028,7 +14084,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>739</v>
       </c>
@@ -14042,7 +14098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B818" t="s">
         <v>674</v>
       </c>
@@ -14053,7 +14109,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>742</v>
       </c>
@@ -14067,7 +14123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B820" t="s">
         <v>674</v>
       </c>
@@ -14078,7 +14134,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>745</v>
       </c>
@@ -14092,7 +14148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>746</v>
       </c>
@@ -14106,7 +14162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>747</v>
       </c>
@@ -14120,7 +14176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>748</v>
       </c>
@@ -14134,7 +14190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>749</v>
       </c>
@@ -14148,7 +14204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>750</v>
       </c>
@@ -14162,7 +14218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>751</v>
       </c>
@@ -14176,7 +14232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>752</v>
       </c>
@@ -14190,7 +14246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>753</v>
       </c>
@@ -14204,7 +14260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>754</v>
       </c>
@@ -14218,7 +14274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>755</v>
       </c>
@@ -14232,7 +14288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>756</v>
       </c>
@@ -14246,7 +14302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>757</v>
       </c>
@@ -14260,7 +14316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>758</v>
       </c>
@@ -14274,7 +14330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>759</v>
       </c>
@@ -14288,7 +14344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>760</v>
       </c>
@@ -14302,7 +14358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>761</v>
       </c>
@@ -14316,7 +14372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>762</v>
       </c>
@@ -14330,7 +14386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>763</v>
       </c>
@@ -14344,7 +14400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>764</v>
       </c>
@@ -14358,7 +14414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>765</v>
       </c>
@@ -14372,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>766</v>
       </c>
@@ -14386,7 +14442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>767</v>
       </c>
@@ -14400,7 +14456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>768</v>
       </c>
@@ -14414,7 +14470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>769</v>
       </c>
@@ -14428,7 +14484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>770</v>
       </c>
@@ -14442,7 +14498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>771</v>
       </c>
@@ -14456,7 +14512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>772</v>
       </c>
@@ -14470,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>773</v>
       </c>
@@ -14484,7 +14540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>774</v>
       </c>
@@ -14498,7 +14554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>775</v>
       </c>
@@ -14512,7 +14568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>776</v>
       </c>
@@ -14526,7 +14582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>777</v>
       </c>
@@ -14540,7 +14596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>778</v>
       </c>
@@ -14554,7 +14610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>779</v>
       </c>
@@ -14568,7 +14624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>780</v>
       </c>
@@ -14582,7 +14638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>781</v>
       </c>
@@ -14596,7 +14652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>782</v>
       </c>
@@ -14610,7 +14666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>783</v>
       </c>
@@ -14624,7 +14680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>784</v>
       </c>
@@ -14638,7 +14694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>785</v>
       </c>
@@ -14652,7 +14708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>786</v>
       </c>
@@ -14666,7 +14722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>787</v>
       </c>
@@ -14680,7 +14736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>788</v>
       </c>
@@ -14694,7 +14750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>789</v>
       </c>
@@ -14708,7 +14764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>790</v>
       </c>
@@ -14722,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>791</v>
       </c>
@@ -14736,7 +14792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>792</v>
       </c>
@@ -14750,7 +14806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>793</v>
       </c>
@@ -14764,7 +14820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>794</v>
       </c>
@@ -14778,7 +14834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>795</v>
       </c>
@@ -14792,7 +14848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>796</v>
       </c>
@@ -14806,7 +14862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>797</v>
       </c>
@@ -14820,7 +14876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>798</v>
       </c>
@@ -14834,7 +14890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="875" spans="1:4">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>799</v>
       </c>
@@ -14848,7 +14904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>800</v>
       </c>
@@ -14862,7 +14918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>801</v>
       </c>
@@ -14876,7 +14932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>802</v>
       </c>
@@ -14890,7 +14946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>803</v>
       </c>
@@ -14904,7 +14960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="880" spans="1:4">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>804</v>
       </c>
@@ -14918,7 +14974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="881" spans="1:4">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>805</v>
       </c>
@@ -14932,7 +14988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>806</v>
       </c>
@@ -14946,7 +15002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>807</v>
       </c>
@@ -14960,7 +15016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>808</v>
       </c>
@@ -14974,7 +15030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>809</v>
       </c>
@@ -14988,7 +15044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>810</v>
       </c>
@@ -15002,7 +15058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>811</v>
       </c>
@@ -15016,7 +15072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>812</v>
       </c>
@@ -15030,7 +15086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>813</v>
       </c>
@@ -15044,7 +15100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>814</v>
       </c>
@@ -15058,7 +15114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>815</v>
       </c>
@@ -15072,7 +15128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>816</v>
       </c>
@@ -15086,7 +15142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="893" spans="1:4">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>817</v>
       </c>
@@ -15100,7 +15156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>818</v>
       </c>
@@ -15114,7 +15170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>819</v>
       </c>
@@ -15128,7 +15184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>820</v>
       </c>
@@ -15142,7 +15198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>821</v>
       </c>
@@ -15156,7 +15212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>822</v>
       </c>
@@ -15170,7 +15226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>823</v>
       </c>
@@ -15184,7 +15240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>824</v>
       </c>
@@ -15198,7 +15254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="901" spans="1:4">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>825</v>
       </c>
@@ -15212,7 +15268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>826</v>
       </c>
@@ -15226,7 +15282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>827</v>
       </c>
@@ -15240,7 +15296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>828</v>
       </c>
@@ -15254,7 +15310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>829</v>
       </c>
@@ -15268,7 +15324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>830</v>
       </c>
@@ -15282,7 +15338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>831</v>
       </c>
@@ -15296,7 +15352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>832</v>
       </c>
@@ -15310,7 +15366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>833</v>
       </c>
@@ -15324,7 +15380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>834</v>
       </c>
@@ -15338,7 +15394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>835</v>
       </c>
@@ -15352,7 +15408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>836</v>
       </c>
@@ -15366,7 +15422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>837</v>
       </c>
@@ -15380,7 +15436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="914" spans="1:4">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>838</v>
       </c>
@@ -15394,7 +15450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>839</v>
       </c>
@@ -15408,7 +15464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="916" spans="1:4">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>840</v>
       </c>
@@ -15422,7 +15478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>841</v>
       </c>
@@ -15436,7 +15492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="918" spans="1:4">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>842</v>
       </c>
@@ -15450,7 +15506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="919" spans="1:4">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>843</v>
       </c>
@@ -15464,7 +15520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>844</v>
       </c>
@@ -15478,7 +15534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:4">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>845</v>
       </c>
@@ -15492,7 +15548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>846</v>
       </c>
@@ -15506,7 +15562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>847</v>
       </c>
@@ -15520,7 +15576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="924" spans="1:4">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>848</v>
       </c>
@@ -15534,7 +15590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:4">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>849</v>
       </c>
@@ -15548,7 +15604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>850</v>
       </c>
@@ -15562,7 +15618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="927" spans="1:4">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>851</v>
       </c>
@@ -15576,7 +15632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>852</v>
       </c>
@@ -15590,7 +15646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>853</v>
       </c>
@@ -15604,7 +15660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="930" spans="1:4">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>854</v>
       </c>
@@ -15618,7 +15674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>855</v>
       </c>
@@ -15632,7 +15688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>856</v>
       </c>
@@ -15646,7 +15702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>857</v>
       </c>
@@ -15660,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:4">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>858</v>
       </c>
@@ -15674,7 +15730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>859</v>
       </c>
@@ -15688,7 +15744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="936" spans="1:4">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>860</v>
       </c>
@@ -15702,7 +15758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>861</v>
       </c>
@@ -15716,7 +15772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="938" spans="1:4">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>862</v>
       </c>
@@ -15730,7 +15786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="939" spans="1:4">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>863</v>
       </c>
@@ -15744,7 +15800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="940" spans="1:4">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>864</v>
       </c>
@@ -15758,7 +15814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>865</v>
       </c>
@@ -15772,7 +15828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>866</v>
       </c>
@@ -15786,7 +15842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>867</v>
       </c>
@@ -15800,7 +15856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="944" spans="1:4">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>868</v>
       </c>
@@ -15814,7 +15870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="945" spans="1:4">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>869</v>
       </c>
@@ -15828,7 +15884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:4">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>870</v>
       </c>
@@ -15842,7 +15898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>871</v>
       </c>
@@ -15856,7 +15912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="948" spans="1:4">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>872</v>
       </c>
@@ -15870,7 +15926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="949" spans="1:4">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>873</v>
       </c>
@@ -15884,7 +15940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>874</v>
       </c>
@@ -15898,7 +15954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>875</v>
       </c>
@@ -15912,7 +15968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="952" spans="1:4">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>876</v>
       </c>
@@ -15926,7 +15982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:4">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>877</v>
       </c>
@@ -15940,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:4">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>878</v>
       </c>
@@ -15954,7 +16010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:4">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>879</v>
       </c>
@@ -15968,7 +16024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:4">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>880</v>
       </c>
@@ -15982,7 +16038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>881</v>
       </c>
@@ -15996,7 +16052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="958" spans="1:4">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>882</v>
       </c>
@@ -16010,7 +16066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>883</v>
       </c>
@@ -16024,7 +16080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="960" spans="1:4">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>884</v>
       </c>
@@ -16038,7 +16094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>885</v>
       </c>
@@ -16052,7 +16108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="962" spans="1:4">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>886</v>
       </c>
@@ -16066,7 +16122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:4">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>887</v>
       </c>
@@ -16080,7 +16136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="964" spans="1:4">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>888</v>
       </c>
@@ -16094,7 +16150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="965" spans="1:4">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>889</v>
       </c>
@@ -16108,7 +16164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>890</v>
       </c>
@@ -16122,7 +16178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:4">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>891</v>
       </c>
@@ -16136,7 +16192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="968" spans="1:4">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>892</v>
       </c>
@@ -16150,7 +16206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="969" spans="1:4">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>893</v>
       </c>
@@ -16164,7 +16220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>894</v>
       </c>
@@ -16178,7 +16234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>895</v>
       </c>
@@ -16192,7 +16248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="972" spans="1:4">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>896</v>
       </c>
@@ -16206,7 +16262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="973" spans="1:4">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>897</v>
       </c>
@@ -16220,7 +16276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>898</v>
       </c>
@@ -16234,7 +16290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>899</v>
       </c>
@@ -16248,7 +16304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="976" spans="1:4">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>900</v>
       </c>
@@ -16262,7 +16318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>901</v>
       </c>
@@ -16276,7 +16332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>902</v>
       </c>
@@ -16290,7 +16346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="979" spans="1:4">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>903</v>
       </c>
@@ -16304,7 +16360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>904</v>
       </c>
@@ -16318,7 +16374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="981" spans="1:4">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>905</v>
       </c>
@@ -16332,7 +16388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="982" spans="1:4">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>906</v>
       </c>
@@ -16346,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:4">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>907</v>
       </c>
@@ -16360,7 +16416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="984" spans="1:4">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>908</v>
       </c>
@@ -16374,7 +16430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>909</v>
       </c>
@@ -16388,7 +16444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="986" spans="1:4">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>910</v>
       </c>
@@ -16402,7 +16458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="987" spans="1:4">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>911</v>
       </c>
@@ -16416,7 +16472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="988" spans="1:4">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>912</v>
       </c>
@@ -16430,7 +16486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="989" spans="1:4">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>913</v>
       </c>
@@ -16444,7 +16500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="990" spans="1:4">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>914</v>
       </c>
@@ -16458,7 +16514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="991" spans="1:4">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>915</v>
       </c>
@@ -16472,7 +16528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="992" spans="1:4">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>916</v>
       </c>
@@ -16486,7 +16542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>917</v>
       </c>
@@ -16500,7 +16556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="994" spans="1:4">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>918</v>
       </c>
@@ -16514,7 +16570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="995" spans="1:4">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>919</v>
       </c>
@@ -16528,7 +16584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="996" spans="1:4">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>920</v>
       </c>
@@ -16542,7 +16598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="997" spans="1:4">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>921</v>
       </c>
@@ -16556,7 +16612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>922</v>
       </c>
@@ -16570,7 +16626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="999" spans="1:4">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>923</v>
       </c>
@@ -16584,7 +16640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1000" spans="1:4">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>924</v>
       </c>
@@ -16598,7 +16654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>925</v>
       </c>
@@ -16612,7 +16668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1002" spans="1:4">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>926</v>
       </c>
@@ -16626,7 +16682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1003" spans="1:4">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>927</v>
       </c>
@@ -16640,7 +16696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1004" spans="1:4">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>928</v>
       </c>
@@ -16654,7 +16710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1005" spans="1:4">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>929</v>
       </c>
@@ -16668,7 +16724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1006" spans="1:4">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>930</v>
       </c>
@@ -16682,7 +16738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1007" spans="1:4">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>931</v>
       </c>
@@ -16696,7 +16752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1008" spans="1:4">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>932</v>
       </c>
@@ -16710,7 +16766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1009" spans="1:4">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>933</v>
       </c>
@@ -16724,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:4">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>934</v>
       </c>
@@ -16738,7 +16794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1011" spans="1:4">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>935</v>
       </c>
@@ -16752,7 +16808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1012" spans="1:4">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>936</v>
       </c>
@@ -16766,7 +16822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1013" spans="1:4">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>937</v>
       </c>
@@ -16780,7 +16836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1014" spans="1:4">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>938</v>
       </c>
@@ -16794,7 +16850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1015" spans="1:4">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>939</v>
       </c>
@@ -16808,7 +16864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1016" spans="1:4">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>940</v>
       </c>
@@ -16822,7 +16878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1017" spans="1:4">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>941</v>
       </c>
@@ -16836,7 +16892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1018" spans="1:4">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>942</v>
       </c>
@@ -16850,7 +16906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1019" spans="1:4">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>943</v>
       </c>
@@ -16864,7 +16920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1020" spans="1:4">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>944</v>
       </c>
@@ -16878,7 +16934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1021" spans="1:4">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>945</v>
       </c>
@@ -16892,7 +16948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1022" spans="1:4">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>946</v>
       </c>
@@ -16906,7 +16962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1023" spans="1:4">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>947</v>
       </c>
